--- a/biology/Zoologie/Desmognathus/Desmognathus.xlsx
+++ b/biology/Zoologie/Desmognathus/Desmognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desmognathus est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desmognathus est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'est de l'Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'est de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,47 +556,49 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (5 juillet 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (5 juillet 2023) :
 Desmognathus abditus Anderson &amp; Tilley, 2003
-Desmognathus adatsihi Pyron &amp; Beamer, 2022[3]
+Desmognathus adatsihi Pyron &amp; Beamer, 2022
 Desmognathus aeneus Brown &amp; Bishop, 1947
 Desmognathus amphileucus Bishop, 1947
-Desmognathus anicetus Pyron &amp; Beamer, 2023[4]
+Desmognathus anicetus Pyron &amp; Beamer, 2023
 Desmognathus apalachicolae Means &amp; Karlin, 1989
 Desmognathus aureatus (Martof, 1956)
 Desmognathus auriculatus (Holbrook, 1838)
-Desmognathus bairdi Pyron &amp; Beamer, 2023[4]
-Desmognathus balsameus Pyron &amp; Beamer, 2022[3]
+Desmognathus bairdi Pyron &amp; Beamer, 2023
+Desmognathus balsameus Pyron &amp; Beamer, 2022
 Desmognathus brimleyorum Stejneger, 1895
-Desmognathus campi Pyron &amp; Beamer, 2023[4]
+Desmognathus campi Pyron &amp; Beamer, 2023
 Desmognathus carolinensis Dunn, 1916
-Desmognathus catahoula Pyron &amp; Beamer, 2023[4]
-Desmognathus cheaha Pyron et al., 2023[5]
+Desmognathus catahoula Pyron &amp; Beamer, 2023
+Desmognathus cheaha Pyron et al., 2023
 Desmognathus conanti Rossman, 1958
 Desmognathus folkertsi Camp et al., 2002
 Desmognathus fuscus (Rafinesque, 1820) - Salamandre sombre du Nord
-Desmognathus gvnigeusgwolti Pyron &amp; Beamer, 2022[6]
+Desmognathus gvnigeusgwolti Pyron &amp; Beamer, 2022
 Desmognathus imitator Dunn, 1927
 Desmognathus intermedius (Pope, 1928)
-Desmognathus kanawha Pyron &amp; Beamer, 2022[6]
-Desmognathus lycos Pyron &amp; Beamer, 2023[4]
+Desmognathus kanawha Pyron &amp; Beamer, 2022
+Desmognathus lycos Pyron &amp; Beamer, 2023
 Desmognathus marmoratus (Moore, 1899)
-Desmognathus mavrokoilius Pyron &amp; Beamer, 2022[6]
+Desmognathus mavrokoilius Pyron &amp; Beamer, 2022
 Desmognathus monticola Dunn, 1916
 Desmognathus ochrophaeus Cope, 1859
 Desmognathus ocoee Nicholls, 1949
 Desmognathus orestes Tilley &amp; Mahoney, 1996
 Desmognathus organi Crespi et al., 2010
-Desmognathus pascagoula Pyron et al., 2022[7]
+Desmognathus pascagoula Pyron et al., 2022
 Desmognathus perlapsus Neill, 1950
 Desmognathus planiceps Newman, 1955
 Desmognathus quadramaculatus (Holbrook, 1840) - débattu
 Desmognathus santeetlah Tilley, 1981
-Desmognathus tilleyi Pyron &amp; Beamer, 2023[4]
-Desmognathus valentinei Means et al., 2017[8]
-Desmognathus valtos Pyron &amp; Beamer, 2022[9]
+Desmognathus tilleyi Pyron &amp; Beamer, 2023
+Desmognathus valentinei Means et al., 2017
+Desmognathus valtos Pyron &amp; Beamer, 2022
 Desmognathus welteri Barbour, 1950
 Desmognathus wrighti King, 1936</t>
         </is>
@@ -612,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird, 1850 "1849" : Revision of the North American tailed-batrachia, with descriptions of new genera and species. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 1, p. 281-294 (texte intégral).</t>
         </is>
